--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>0.4965852263679999</v>
+        <v>0.3819127950586667</v>
       </c>
       <c r="R2">
-        <v>4.469267037311999</v>
+        <v>3.437215155528</v>
       </c>
       <c r="S2">
-        <v>0.001760519310845196</v>
+        <v>0.00163438187915264</v>
       </c>
       <c r="T2">
-        <v>0.001760519310845196</v>
+        <v>0.001634381879152641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>1.124698964722666</v>
+        <v>1.124698964722667</v>
       </c>
       <c r="R3">
         <v>10.122290682504</v>
       </c>
       <c r="S3">
-        <v>0.003987340221061095</v>
+        <v>0.00481310820487722</v>
       </c>
       <c r="T3">
-        <v>0.003987340221061095</v>
+        <v>0.004813108204877223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>0.183826752648</v>
+        <v>0.2360619001253333</v>
       </c>
       <c r="R4">
-        <v>1.654440773832</v>
+        <v>2.124557101128</v>
       </c>
       <c r="S4">
-        <v>0.0006517119936365914</v>
+        <v>0.001010218293063261</v>
       </c>
       <c r="T4">
-        <v>0.0006517119936365913</v>
+        <v>0.001010218293063261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>0.2679747911866666</v>
+        <v>0.3601614683333333</v>
       </c>
       <c r="R5">
-        <v>2.411773120679999</v>
+        <v>3.241453215</v>
       </c>
       <c r="S5">
-        <v>0.0009500379182731098</v>
+        <v>0.001541297869642165</v>
       </c>
       <c r="T5">
-        <v>0.0009500379182731097</v>
+        <v>0.001541297869642165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>0.2226993258746666</v>
+        <v>0.1668602952426667</v>
       </c>
       <c r="R6">
-        <v>2.004293932872</v>
+        <v>1.501742657184</v>
       </c>
       <c r="S6">
-        <v>0.0007895250259096769</v>
+        <v>0.0007140725485585831</v>
       </c>
       <c r="T6">
-        <v>0.0007895250259096768</v>
+        <v>0.0007140725485585833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>44.15061766642666</v>
+        <v>33.95527071934277</v>
       </c>
       <c r="R7">
-        <v>397.3555589978399</v>
+        <v>305.597436474085</v>
       </c>
       <c r="S7">
-        <v>0.1565250250314253</v>
+        <v>0.1453103427888327</v>
       </c>
       <c r="T7">
-        <v>0.1565250250314253</v>
+        <v>0.1453103427888328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>99.99523011282277</v>
@@ -948,10 +948,10 @@
         <v>899.9570710154048</v>
       </c>
       <c r="S8">
-        <v>0.3545081977037604</v>
+        <v>0.4279259407189827</v>
       </c>
       <c r="T8">
-        <v>0.3545081977037605</v>
+        <v>0.4279259407189828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>16.343749757485</v>
+        <v>20.98789521845389</v>
       </c>
       <c r="R9">
-        <v>147.093747817365</v>
+        <v>188.891056966085</v>
       </c>
       <c r="S9">
-        <v>0.05794269650372346</v>
+        <v>0.08981693221701598</v>
       </c>
       <c r="T9">
-        <v>0.05794269650372346</v>
+        <v>0.089816932217016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>23.82522056980277</v>
+        <v>32.02139419826388</v>
       </c>
       <c r="R10">
-        <v>214.4269851282249</v>
+        <v>288.192547784375</v>
       </c>
       <c r="S10">
-        <v>0.08446638899241103</v>
+        <v>0.1370343887399914</v>
       </c>
       <c r="T10">
-        <v>0.08446638899241103</v>
+        <v>0.1370343887399914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>19.79984959112944</v>
+        <v>14.83528850193111</v>
       </c>
       <c r="R11">
-        <v>178.198646320165</v>
+        <v>133.51759651738</v>
       </c>
       <c r="S11">
-        <v>0.07019543817677296</v>
+        <v>0.06348707614216788</v>
       </c>
       <c r="T11">
-        <v>0.07019543817677296</v>
+        <v>0.06348707614216789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>7.350141791152</v>
+        <v>2.144511520312778</v>
       </c>
       <c r="R12">
-        <v>66.151276120368</v>
+        <v>19.300603682815</v>
       </c>
       <c r="S12">
-        <v>0.02605809813436539</v>
+        <v>0.009177358846788252</v>
       </c>
       <c r="T12">
-        <v>0.02605809813436539</v>
+        <v>0.009177358846788256</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>16.64708578532566</v>
+        <v>6.315394294032777</v>
       </c>
       <c r="R13">
-        <v>149.823772067931</v>
+        <v>56.838548646295</v>
       </c>
       <c r="S13">
-        <v>0.05901809888448784</v>
+        <v>0.02702649957639047</v>
       </c>
       <c r="T13">
-        <v>0.05901809888448786</v>
+        <v>0.02702649957639048</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>2.720887825947</v>
+        <v>1.325531563423889</v>
       </c>
       <c r="R14">
-        <v>24.487990433523</v>
+        <v>11.929784070815</v>
       </c>
       <c r="S14">
-        <v>0.009646230507617809</v>
+        <v>0.005672563987210961</v>
       </c>
       <c r="T14">
-        <v>0.009646230507617809</v>
+        <v>0.005672563987210963</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>3.966394099321666</v>
+        <v>2.022373767013889</v>
       </c>
       <c r="R15">
-        <v>35.69754689389499</v>
+        <v>18.201363903125</v>
       </c>
       <c r="S15">
-        <v>0.01406186297033224</v>
+        <v>0.008654674785570939</v>
       </c>
       <c r="T15">
-        <v>0.01406186297033224</v>
+        <v>0.008654674785570941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>3.296255174453667</v>
+        <v>0.9369516550911111</v>
       </c>
       <c r="R16">
-        <v>29.666296570083</v>
+        <v>8.432564895820001</v>
       </c>
       <c r="S16">
-        <v>0.01168605222217911</v>
+        <v>0.004009650439932902</v>
       </c>
       <c r="T16">
-        <v>0.01168605222217911</v>
+        <v>0.004009650439932903</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N17">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q17">
-        <v>2.150307123962667</v>
+        <v>1.537798672413889</v>
       </c>
       <c r="R17">
-        <v>19.352764115664</v>
+        <v>13.840188051725</v>
       </c>
       <c r="S17">
-        <v>0.007623378656816639</v>
+        <v>0.006580953339340633</v>
       </c>
       <c r="T17">
-        <v>0.007623378656816639</v>
+        <v>0.006580953339340636</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q18">
-        <v>4.870157362201445</v>
+        <v>4.528679314213889</v>
       </c>
       <c r="R18">
-        <v>43.831416259813</v>
+        <v>40.75811382792499</v>
       </c>
       <c r="S18">
-        <v>0.01726593065548971</v>
+        <v>0.01938031797679784</v>
       </c>
       <c r="T18">
-        <v>0.01726593065548971</v>
+        <v>0.01938031797679785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N19">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O19">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P19">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q19">
-        <v>0.7960043005810001</v>
+        <v>0.9505198079694445</v>
       </c>
       <c r="R19">
-        <v>7.164038705229001</v>
+        <v>8.554678271724999</v>
       </c>
       <c r="S19">
-        <v>0.002822035107524858</v>
+        <v>0.004067714855382806</v>
       </c>
       <c r="T19">
-        <v>0.002822035107524858</v>
+        <v>0.004067714855382807</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N20">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q20">
-        <v>1.160381082509444</v>
+        <v>1.450215428819445</v>
       </c>
       <c r="R20">
-        <v>10.443429742585</v>
+        <v>13.051938859375</v>
       </c>
       <c r="S20">
-        <v>0.004113842287735391</v>
+        <v>0.006206144042296312</v>
       </c>
       <c r="T20">
-        <v>0.004113842287735391</v>
+        <v>0.006206144042296313</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H21">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I21">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J21">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N21">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O21">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P21">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q21">
-        <v>0.9643298300121111</v>
+        <v>0.6718746892555556</v>
       </c>
       <c r="R21">
-        <v>8.678968470109</v>
+        <v>6.0468722033</v>
       </c>
       <c r="S21">
-        <v>0.003418791372786979</v>
+        <v>0.002875263231261758</v>
       </c>
       <c r="T21">
-        <v>0.003418791372786979</v>
+        <v>0.002875263231261758</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N22">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q22">
-        <v>6.864391698079999</v>
+        <v>1.299943837608889</v>
       </c>
       <c r="R22">
-        <v>61.77952528271999</v>
+        <v>11.69949453848</v>
       </c>
       <c r="S22">
-        <v>0.02433599209155619</v>
+        <v>0.005563062247699096</v>
       </c>
       <c r="T22">
-        <v>0.02433599209155619</v>
+        <v>0.0055630622476991</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q23">
-        <v>15.54692694494333</v>
+        <v>3.828218135848889</v>
       </c>
       <c r="R23">
-        <v>139.92234250449</v>
+        <v>34.45396322264</v>
       </c>
       <c r="S23">
-        <v>0.05511775956578481</v>
+        <v>0.01638271990786223</v>
       </c>
       <c r="T23">
-        <v>0.05511775956578482</v>
+        <v>0.01638271990786223</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N24">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O24">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P24">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q24">
-        <v>2.54107204113</v>
+        <v>0.8035007371644445</v>
       </c>
       <c r="R24">
-        <v>22.86964837017</v>
+        <v>7.23150663448</v>
       </c>
       <c r="S24">
-        <v>0.009008738402021989</v>
+        <v>0.003438552103250765</v>
       </c>
       <c r="T24">
-        <v>0.009008738402021989</v>
+        <v>0.003438552103250766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N25">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q25">
-        <v>3.704266325783333</v>
+        <v>1.225907294444444</v>
       </c>
       <c r="R25">
-        <v>33.33839693205</v>
+        <v>11.03316565</v>
       </c>
       <c r="S25">
-        <v>0.01313255419770052</v>
+        <v>0.005246225561134348</v>
       </c>
       <c r="T25">
-        <v>0.01313255419770052</v>
+        <v>0.005246225561134349</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N26">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O26">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P26">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q26">
-        <v>3.078414988063333</v>
+        <v>0.5679542957155556</v>
       </c>
       <c r="R26">
-        <v>27.70573489257</v>
+        <v>5.11158866144</v>
       </c>
       <c r="S26">
-        <v>0.01091375406578149</v>
+        <v>0.002430539696795999</v>
       </c>
       <c r="T26">
-        <v>0.01091375406578149</v>
+        <v>0.002430539696796</v>
       </c>
     </row>
   </sheetData>
